--- a/document/【ファイルサーバー課題】WBS.xlsx
+++ b/document/【ファイルサーバー課題】WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA008F73-5B93-4752-954C-E5252F5CF6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF43D2-6480-4BD0-AA4E-B08EE1813118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{C818FF81-0C00-4743-B6AB-F60EE8E19BA3}"/>
   </bookViews>
@@ -516,12 +516,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,6 +577,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,7 +902,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15" x14ac:dyDescent="0.55000000000000004"/>
@@ -922,711 +922,719 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
         <v>44175</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>44176</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>44175</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>44176</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>44175</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>44176</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="G7" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16">
         <v>44175</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>44176</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="16">
+        <v>44175</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
         <v>44175</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>44176</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="18">
+      <c r="D11" s="28"/>
+      <c r="E11" s="16">
         <v>44179</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>44179</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="18">
+      <c r="D12" s="28"/>
+      <c r="E12" s="16">
         <v>44179</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>44179</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="18">
+      <c r="D13" s="28"/>
+      <c r="E13" s="16">
         <v>44179</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>44180</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="29">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="18">
+      <c r="D14" s="29"/>
+      <c r="E14" s="16">
         <v>44179</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="31">
         <v>44180</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="18">
+      <c r="D15" s="28"/>
+      <c r="E15" s="16">
         <v>44179</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="31">
         <v>44180</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <v>10</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="18">
+      <c r="D16" s="28"/>
+      <c r="E16" s="16">
         <v>44179</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="31">
         <v>44180</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <v>11</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33">
+      <c r="D17" s="28"/>
+      <c r="E17" s="31">
         <v>44180</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="31">
         <v>44182</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="33">
+      <c r="D18" s="28"/>
+      <c r="E18" s="31">
         <v>44180</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="31">
         <v>44182</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33">
+      <c r="D19" s="28"/>
+      <c r="E19" s="31">
         <v>44181</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="31">
         <v>44183</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33">
+      <c r="D20" s="28"/>
+      <c r="E20" s="31">
         <v>44181</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="31">
         <v>44183</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>15</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="33">
+      <c r="D21" s="28"/>
+      <c r="E21" s="31">
         <v>44181</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="31">
         <v>44183</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29">
+      <c r="A22" s="27">
         <v>16</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="33">
+      <c r="D22" s="28"/>
+      <c r="E22" s="31">
         <v>44182</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="31">
         <v>44183</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>17</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="33">
+      <c r="D23" s="15"/>
+      <c r="E23" s="31">
         <v>44182</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="31">
         <v>44183</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16">
         <v>44179</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>44190</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="20">
         <v>19</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="18">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="16">
         <v>44186</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>44186</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="24" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="22">
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="20">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="18">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="16">
         <v>44187</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>44190</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="28"/>
-    </row>
-    <row r="43" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="28"/>
-    </row>
-    <row r="44" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="28"/>
-    </row>
-    <row r="45" spans="1:9" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="28"/>
+      <c r="I45" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
